--- a/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA675A17-C88F-49AB-8BB8-54DDF2281F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -489,10 +488,6 @@
   </si>
   <si>
     <t>RateIncr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UtilBal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,11 +1066,15 @@
     <t>違約適用說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UtilBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1454,23 +1453,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1506,23 +1488,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1698,11 +1663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1722,10 +1687,10 @@
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1765,7 +1730,7 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>117</v>
@@ -1780,7 +1745,7 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>118</v>
@@ -1808,7 +1773,7 @@
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="14"/>
@@ -1857,10 +1822,10 @@
         <v>74</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
@@ -1890,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>15</v>
@@ -1908,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>56</v>
@@ -1929,7 +1894,7 @@
         <v>76</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>122</v>
@@ -1938,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1946,10 +1911,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>122</v>
@@ -1958,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1969,7 +1934,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>124</v>
@@ -2140,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2148,10 +2113,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>242</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>122</v>
@@ -2169,7 +2134,7 @@
         <v>85</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>122</v>
@@ -2205,7 +2170,7 @@
         <v>87</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>122</v>
@@ -2226,7 +2191,7 @@
         <v>88</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>122</v>
@@ -2244,10 +2209,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>122</v>
@@ -2279,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2347,7 +2312,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
@@ -2359,19 +2324,19 @@
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>173</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2379,10 +2344,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>124</v>
@@ -2391,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2411,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2419,13 +2384,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2481,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -2532,10 +2497,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>122</v>
@@ -2553,10 +2518,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>124</v>
@@ -2565,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2573,19 +2538,19 @@
         <v>38</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -2593,19 +2558,19 @@
         <v>39</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2613,19 +2578,19 @@
         <v>40</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2639,7 +2604,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50" s="4">
         <v>8</v>
@@ -2657,13 +2622,13 @@
         <v>49</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2674,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>124</v>
@@ -2683,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2691,7 +2656,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>31</v>
@@ -2703,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2711,7 +2676,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>32</v>
@@ -2723,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2731,7 +2696,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>39</v>
@@ -2743,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2751,7 +2716,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>50</v>
@@ -2763,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
@@ -2783,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -2791,7 +2756,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>34</v>
@@ -2803,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2904,7 +2869,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>124</v>
@@ -2913,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2921,10 +2886,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>124</v>
@@ -2981,7 +2946,7 @@
         <v>52</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="4">
         <v>6</v>
@@ -2993,19 +2958,19 @@
         <v>60</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="4">
         <v>6</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
@@ -3016,7 +2981,7 @@
         <v>112</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>123</v>
@@ -3026,7 +2991,7 @@
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3034,20 +2999,20 @@
         <v>62</v>
       </c>
       <c r="B71" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>226</v>
-      </c>
       <c r="D71" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" s="27">
         <v>1</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3055,13 +3020,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -3098,7 +3063,7 @@
         <v>40</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" s="4">
         <v>8</v>
@@ -3116,7 +3081,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="4">
         <v>10</v>
@@ -3128,10 +3093,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>124</v>
@@ -3140,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3160,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3168,19 +3133,19 @@
         <v>69</v>
       </c>
       <c r="B78" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="D78" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="4">
         <v>8</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3188,10 +3153,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>190</v>
       </c>
       <c r="D79" s="30" t="s">
         <v>124</v>
@@ -3206,10 +3171,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80" s="30" t="s">
         <v>124</v>
@@ -3224,13 +3189,13 @@
         <v>72</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>193</v>
-      </c>
       <c r="D81" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" s="4">
         <v>8</v>
@@ -3248,7 +3213,7 @@
         <v>125</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E82" s="4">
         <v>8</v>
@@ -3260,10 +3225,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>124</v>
@@ -3272,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3280,13 +3245,13 @@
         <v>75</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>204</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E84" s="4">
         <v>4</v>
@@ -3298,20 +3263,20 @@
         <v>76</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" s="32">
         <v>1</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3325,7 +3290,7 @@
         <v>70</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E86" s="4">
         <v>8</v>
@@ -3364,7 +3329,7 @@
         <v>71</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="4">
         <v>8</v>
@@ -3413,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3442,131 +3407,131 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
